--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:45:42+00:00</t>
+    <t>2024-04-08T13:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:54:50+00:00</t>
+    <t>2024-04-15T07:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T07:06:55+00:00</t>
+    <t>2024-04-16T07:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T07:58:07+00:00</t>
+    <t>2024-04-16T08:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:04:57+00:00</t>
+    <t>2024-04-16T08:07:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:07:09+00:00</t>
+    <t>2024-04-16T14:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-2</t>
+    <t>4.0.2-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T14:08:46+00:00</t>
+    <t>2024-04-18T09:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:01:06+00:00</t>
+    <t>2024-04-18T09:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:17:36+00:00</t>
+    <t>2024-04-18T09:19:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:05:49+00:00</t>
+    <t>2024-06-18T14:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:54:15+00:00</t>
+    <t>2024-06-18T17:21:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T17:21:18+00:00</t>
+    <t>2024-07-02T09:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:49:27+00:00</t>
+    <t>2024-07-02T09:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:56:41+00:00</t>
+    <t>2024-07-02T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:57:00+00:00</t>
+    <t>2024-07-02T14:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:05:06+00:00</t>
+    <t>2024-07-02T14:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:24:18+00:00</t>
+    <t>2024-07-03T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T07:35:44+00:00</t>
+    <t>2024-07-03T12:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T12:52:21+00:00</t>
+    <t>2024-09-27T09:57:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T09:57:43+00:00</t>
+    <t>2024-09-27T16:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T16:26:26+00:00</t>
+    <t>2024-09-27T16:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T16:53:13+00:00</t>
+    <t>2024-09-30T21:21:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T21:21:44+00:00</t>
+    <t>2024-10-02T20:14:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T20:14:47+00:00</t>
+    <t>2024-10-03T12:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour la définition du Bundle de réponse à la recherche d'une notification</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour transporter les résultats d’une recherche de notification.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T12:27:30+00:00</t>
+    <t>2024-10-04T08:06:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T08:06:21+00:00</t>
+    <t>2024-10-04T14:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T14:46:58+00:00</t>
+    <t>2024-10-07T13:01:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T13:01:26+00:00</t>
+    <t>2024-10-09T12:11:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T12:11:40+00:00</t>
+    <t>2024-10-15T12:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T12:27:57+00:00</t>
+    <t>2024-10-21T08:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T08:06:01+00:00</t>
+    <t>2024-10-21T09:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T09:33:00+00:00</t>
+    <t>2024-10-21T11:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T11:49:02+00:00</t>
+    <t>2024-10-21T15:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T15:03:10+00:00</t>
+    <t>2024-11-04T11:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T07:56:02+00:00</t>
+    <t>2024-11-25T07:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T07:58:23+00:00</t>
+    <t>2024-11-25T09:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T09:06:08+00:00</t>
+    <t>2024-11-25T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T09:06:42+00:00</t>
+    <t>2024-11-26T13:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T13:14:13+00:00</t>
+    <t>2024-12-12T08:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T08:32:59+00:00</t>
+    <t>2024-12-12T09:54:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T09:54:48+00:00</t>
+    <t>2024-12-12T16:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T16:11:50+00:00</t>
+    <t>2024-12-12T16:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T16:13:29+00:00</t>
+    <t>2024-12-13T09:00:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T09:00:45+00:00</t>
+    <t>2024-12-17T10:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T10:42:26+00:00</t>
+    <t>2024-12-17T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T15:34:44+00:00</t>
+    <t>2024-12-19T12:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T12:46:51+00:00</t>
+    <t>2024-12-19T14:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:23:02+00:00</t>
+    <t>2024-12-19T14:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:31:30+00:00</t>
+    <t>2025-01-09T09:31:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T09:31:59+00:00</t>
+    <t>2025-01-13T14:44:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="270">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T14:44:29+00:00</t>
+    <t>2025-01-22T13:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,8 +262,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -313,10 +313,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -340,9 +336,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -385,12 +378,6 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -471,8 +458,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -509,6 +496,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -529,16 +519,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -575,9 +555,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -587,9 +564,6 @@
     <t>The reference details for the link.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
     <t>Bundle.entry</t>
   </si>
   <si>
@@ -599,8 +573,8 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -661,8 +635,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -718,8 +692,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -773,9 +747,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -803,8 +774,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -873,9 +844,6 @@
   <si>
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1234,15 +1202,15 @@
     <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1689,16 +1657,16 @@
         <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -1709,10 +1677,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1735,16 +1703,16 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1794,7 +1762,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1803,16 +1771,16 @@
         <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -1823,10 +1791,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1849,16 +1817,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1884,32 +1852,32 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
@@ -1917,16 +1885,16 @@
         <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -1937,10 +1905,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1963,16 +1931,16 @@
         <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2022,7 +1990,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2031,30 +1999,30 @@
         <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2077,16 +2045,16 @@
         <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2097,78 +2065,78 @@
         <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2191,16 +2159,16 @@
         <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2250,7 +2218,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2259,30 +2227,30 @@
         <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2305,16 +2273,16 @@
         <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2364,7 +2332,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2373,16 +2341,16 @@
         <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2393,10 +2361,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2419,16 +2387,16 @@
         <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2478,7 +2446,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2487,16 +2455,16 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2507,10 +2475,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2533,13 +2501,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2590,7 +2558,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2608,7 +2576,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2619,14 +2587,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2645,16 +2613,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2692,19 +2660,19 @@
         <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2713,16 +2681,16 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2733,14 +2701,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2759,19 +2727,19 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2820,7 +2788,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2829,10 +2797,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2849,10 +2817,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2875,17 +2843,15 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2934,7 +2900,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2943,16 +2909,16 @@
         <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -2963,10 +2929,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2989,17 +2955,15 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3048,7 +3012,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -3057,16 +3021,16 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3077,10 +3041,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3103,13 +3067,13 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3160,7 +3124,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3169,16 +3133,16 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3189,10 +3153,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3215,13 +3179,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3272,7 +3236,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3290,7 +3254,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3301,14 +3265,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3327,16 +3291,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3374,19 +3338,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3395,16 +3359,16 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3415,14 +3379,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3441,19 +3405,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3502,7 +3466,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3511,10 +3475,10 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -3531,10 +3495,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3560,10 +3524,10 @@
         <v>79</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3614,7 +3578,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3626,7 +3590,7 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3643,10 +3607,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3669,16 +3633,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3728,7 +3692,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3737,16 +3701,16 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3757,10 +3721,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3783,13 +3747,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3840,7 +3804,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3858,7 +3822,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3869,10 +3833,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3895,13 +3859,13 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3952,7 +3916,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3961,16 +3925,16 @@
         <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3981,10 +3945,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4007,13 +3971,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4064,7 +4028,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4082,7 +4046,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4093,14 +4057,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4119,16 +4083,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4166,19 +4130,19 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4187,16 +4151,16 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4207,14 +4171,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4233,19 +4197,19 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4294,7 +4258,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4303,10 +4267,10 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4323,10 +4287,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4349,16 +4313,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4384,13 +4348,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4408,7 +4372,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4417,16 +4381,16 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4437,10 +4401,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4463,16 +4427,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4522,7 +4486,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4531,16 +4495,16 @@
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4551,10 +4515,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4577,13 +4541,13 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4634,7 +4598,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4643,16 +4607,16 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4663,10 +4627,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4689,13 +4653,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4746,7 +4710,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4764,7 +4728,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4775,14 +4739,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4801,16 +4765,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4848,19 +4812,19 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4869,16 +4833,16 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4889,14 +4853,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4915,19 +4879,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4976,7 +4940,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4985,10 +4949,10 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5005,10 +4969,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5031,17 +4995,15 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5066,13 +5028,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5090,7 +5052,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5099,16 +5061,16 @@
         <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5119,10 +5081,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5145,16 +5107,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5204,7 +5166,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5213,16 +5175,16 @@
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5233,10 +5195,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5259,17 +5221,15 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5318,7 +5278,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5327,16 +5287,16 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5347,10 +5307,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5373,17 +5333,15 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5432,7 +5390,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5441,16 +5399,16 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5461,10 +5419,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5487,17 +5445,15 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5546,7 +5502,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5555,16 +5511,16 @@
         <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5575,10 +5531,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5601,17 +5557,15 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5660,7 +5614,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5669,16 +5623,16 @@
         <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5689,10 +5643,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5715,13 +5669,13 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5772,7 +5726,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5781,16 +5735,16 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -5801,10 +5755,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5827,13 +5781,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5884,7 +5838,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5902,7 +5856,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -5913,14 +5867,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5939,16 +5893,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5986,19 +5940,19 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6007,16 +5961,16 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6027,14 +5981,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6053,19 +6007,19 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6114,7 +6068,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6123,10 +6077,10 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6143,10 +6097,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6169,17 +6123,15 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6228,7 +6180,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6237,16 +6189,16 @@
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6257,10 +6209,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6283,17 +6235,15 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6342,7 +6292,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6351,16 +6301,16 @@
         <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6371,10 +6321,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6397,16 +6347,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6456,7 +6406,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6465,16 +6415,16 @@
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6485,10 +6435,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6511,16 +6461,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6570,7 +6520,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6579,16 +6529,16 @@
         <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6599,10 +6549,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6625,16 +6575,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6684,7 +6634,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6702,7 +6652,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6713,10 +6663,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6739,19 +6689,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6800,7 +6750,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6809,16 +6759,16 @@
         <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T13:25:19+00:00</t>
+    <t>2025-01-22T13:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T13:26:17+00:00</t>
+    <t>2025-01-28T08:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T08:40:54+00:00</t>
+    <t>2025-01-29T16:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:58:30+00:00</t>
+    <t>2025-01-29T17:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T17:04:40+00:00</t>
+    <t>2025-01-30T14:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3-ballot</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T14:25:53+00:00</t>
+    <t>2025-01-30T15:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T17:20:03+00:00</t>
+    <t>2025-03-12T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T09:03:52+00:00</t>
+    <t>2025-06-10T12:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1174,17 +1174,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1193,26 +1193,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.78515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:40:27+00:00</t>
+    <t>2025-06-16T08:34:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T08:34:53+00:00</t>
+    <t>2025-06-16T08:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T08:35:57+00:00</t>
+    <t>2025-06-18T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T13:08:40+00:00</t>
+    <t>2025-06-19T08:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:03:00+00:00</t>
+    <t>2025-10-09T08:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:51:23+00:00</t>
+    <t>2025-10-13T12:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T12:40:15+00:00</t>
+    <t>2025-10-13T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:47:24+00:00</t>
+    <t>2025-10-13T14:26:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:26:04+00:00</t>
+    <t>2025-10-13T14:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1174,17 +1174,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.3203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.5234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1193,26 +1193,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.78515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/main/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:36:29+00:00</t>
+    <t>2025-10-13T15:03:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
